--- a/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_12.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_12.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N294"/>
+  <dimension ref="A1:N295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2625031471252441</v>
+        <v>0.0006978511810302734</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007893085479736328</v>
+        <v>0.0005869865417480469</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003035783767700195</v>
+        <v>0.02002692222595215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 1), (1, 0), (1, 2), (2, 1), (0, 0), (0, 2), (0, 3), (2, 0), (2, 2), (2, 3), (3, 0)]</t>
+          <t>[[0, 1], [1, 1], [1, 0], [1, 2], [2, 1], [0, 0], [0, 2], [0, 3], [2, 0], [2, 2], [2, 3], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 0), (2, 2), (0, 1), (1, 3), (0, 3), (0, 2), (1, 2), (1, 1), (2, 1), (2, 0), (3, 0)]</t>
+          <t>[[3, 1], [1, 0], [2, 2], [0, 1], [1, 3], [0, 3], [0, 2], [1, 2], [1, 1], [2, 1], [2, 0], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[(1, 2), (2, 3), (3, 2), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1)]</t>
+          <t>[[1, 2], [2, 3], [3, 2], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[(2, 0), (1, 2), (2, 3), (1, 3), (0, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0)]</t>
+          <t>[[2, 0], [1, 2], [2, 3], [1, 3], [0, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>[(0, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (1, 3)]</t>
+          <t>[[0, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>[(1, 2), (2, 3), (3, 2), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1)]</t>
+          <t>[[1, 2], [2, 3], [3, 2], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>[(2, 0), (1, 2), (2, 3), (1, 3), (0, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0)]</t>
+          <t>[[2, 0], [1, 2], [2, 3], [1, 3], [0, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>[(0, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (1, 3)]</t>
+          <t>[[0, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>[(0, 3), (1, 3), (2, 2), (3, 0), (2, 0), (1, 2), (0, 1), (0, 0), (0, 2), (1, 1), (1, 0), (2, 1)]</t>
+          <t>[[0, 3], [1, 3], [2, 2], [3, 0], [2, 0], [1, 2], [0, 1], [0, 0], [0, 2], [1, 1], [1, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>[(1, 2), (1, 3), (2, 2), (3, 0), (2, 0), (1, 0), (2, 1), (0, 3), (0, 0), (1, 1), (0, 1), (0, 2)]</t>
+          <t>[[1, 2], [1, 3], [2, 2], [3, 0], [2, 0], [1, 0], [2, 1], [0, 3], [0, 0], [1, 1], [0, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -2618,110 +2618,120 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>72</v>
+        <v>0.9956223419795164</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>198</v>
+        <v>72</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>10</v>
+        <v>198</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.2933399677276611</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0.04903507232666016</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
+      <c r="B295" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
+      <c r="C295" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr">
+      <c r="D295" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr">
+      <c r="E295" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
+      <c r="F295" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G294" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
+      <c r="H295" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I294" t="inlineStr">
+      <c r="I295" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J294" t="inlineStr">
+      <c r="J295" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K294" t="inlineStr">
+      <c r="K295" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L294" t="inlineStr">
+      <c r="L295" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M294" t="inlineStr">
+      <c r="M295" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N294" t="inlineStr">
+      <c r="N295" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
